--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,6 +1428,357 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Raphael Maximowski</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>raphael@gmail.com</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>11027298923</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12092005</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>aaaa@gmail.com</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>110272989233</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1141414</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>cccc</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>gggg</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>gggg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ggggg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>gggg</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tttt</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>tttt</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ttt</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>eeee</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>eeee</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>eeee</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>oioioi</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>lll</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>llll</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>llll</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>llll</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>yyyyy</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>yyyyy</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>yyyyy</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>yyyyyy</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>gabriel</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>medina</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1012941</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>rrrrrr</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rrrrr</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>rrrrr</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>rrrrrr</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1779,6 +1779,33 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>oioi</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>oioi</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>oioi</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>oioi</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1806,6 +1806,33 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AdminFinal</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>admin@admin</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>101010101010</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1833,6 +1833,60 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>alan</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>asdffd</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>234563</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>fwefw</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>erferf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>fwrefewrf</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>232434</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>erferf</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1806,6 +1806,60 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>UserTeste</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>adminteste@gmail</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>111.111.111-23</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12092005</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>teste23</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>teste23</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>teste23</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>teste23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>adm</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
